--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.516543666666667</v>
+        <v>0.292742</v>
       </c>
       <c r="H2">
-        <v>7.549631</v>
+        <v>0.8782260000000001</v>
       </c>
       <c r="I2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="J2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.497899</v>
+        <v>0.163273</v>
       </c>
       <c r="N2">
-        <v>1.493697</v>
+        <v>0.489819</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.252984575089667</v>
+        <v>0.047796864566</v>
       </c>
       <c r="R2">
-        <v>11.276861175807</v>
+        <v>0.4301717810940001</v>
       </c>
       <c r="S2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="T2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.813791</v>
       </c>
       <c r="I3">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="J3">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.497899</v>
+        <v>0.163273</v>
       </c>
       <c r="N3">
-        <v>1.493697</v>
+        <v>0.489819</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.296826241703</v>
+        <v>0.425260365981</v>
       </c>
       <c r="R3">
-        <v>11.671436175327</v>
+        <v>3.827343293829</v>
       </c>
       <c r="S3">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="T3">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2418006666666667</v>
+        <v>0.01313633333333333</v>
       </c>
       <c r="H4">
-        <v>0.7254020000000001</v>
+        <v>0.039409</v>
       </c>
       <c r="I4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="J4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.497899</v>
+        <v>0.163273</v>
       </c>
       <c r="N4">
-        <v>1.493697</v>
+        <v>0.489819</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1203923101326667</v>
+        <v>0.002144808552333333</v>
       </c>
       <c r="R4">
-        <v>1.083530791194</v>
+        <v>0.019303276971</v>
       </c>
       <c r="S4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="T4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
     </row>
   </sheetData>
